--- a/Supplementary Folder 1 PTM-SEA Python Scripts/western_blot_data/Supplementary Folder 1 File C CD19-CAR T cell 30 minute coculture pTyr Western Statistics.xlsx
+++ b/Supplementary Folder 1 PTM-SEA Python Scripts/western_blot_data/Supplementary Folder 1 File C CD19-CAR T cell 30 minute coculture pTyr Western Statistics.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.5802132975868854</t>
+          <t>-4.724151027382934</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0027613194610511815</t>
+          <t>0.009143493021608107</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.491864893188141</t>
+          <t>-3.8220820148356736</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.025080387214545308</t>
+          <t>0.01874480513679866</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-3.4191660114392555</t>
+          <t>5.363920083347691</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.02680069235958693</t>
+          <t>0.005830992837095206</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-5.616698400008913</t>
+          <t>3.5117734296376955</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0049385956362615335</t>
+          <t>0.02463238941144197</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-4.689261739074278</t>
+          <t>6.6034507404019385</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.009382888971346315</t>
+          <t>0.00272536414291924</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-4.081999942298446</t>
+          <t>10.539420844425358</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.015073669630782272</t>
+          <t>0.0004584147549344664</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
